--- a/src/main/resources/_test/docs/xlsx/_IF002.xlsx
+++ b/src/main/resources/_test/docs/xlsx/_IF002.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="92">
   <si>
     <t>시스템명</t>
   </si>
@@ -289,6 +289,12 @@
   </si>
   <si>
     <t>tlgrTrcgNo</t>
+  </si>
+  <si>
+    <t>거래고유번호</t>
+  </si>
+  <si>
+    <t>trnnUniqNo</t>
   </si>
 </sst>
 </file>
@@ -1206,10 +1212,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:T44"/>
+  <dimension ref="A3:T45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2407,6 +2413,44 @@
         <v>10</v>
       </c>
     </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>6</v>
+      </c>
+      <c r="B45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" t="s">
+        <v>83</v>
+      </c>
+      <c r="E45" t="s">
+        <v>42</v>
+      </c>
+      <c r="F45">
+        <v>20</v>
+      </c>
+      <c r="J45">
+        <v>6</v>
+      </c>
+      <c r="K45" t="s">
+        <v>90</v>
+      </c>
+      <c r="L45" t="s">
+        <v>91</v>
+      </c>
+      <c r="M45" t="s">
+        <v>83</v>
+      </c>
+      <c r="N45" t="s">
+        <v>42</v>
+      </c>
+      <c r="O45">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
